--- a/uploads/loads_template.xlsx
+++ b/uploads/loads_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tinashebutsa/Documents/Other/Projects/star_international/python-whatsapp-bot/uploads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{894926C3-F099-D641-802C-D7890EF29D29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F0E9DA-0BD3-4A55-B0E8-35AA33BE14F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="760" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Route</t>
   </si>
@@ -37,37 +37,49 @@
     <t>Trucks Needed</t>
   </si>
   <si>
-    <t>Bulawayo TO Kwekwe</t>
-  </si>
-  <si>
     <t>Harare TO Chinhoyi</t>
   </si>
   <si>
-    <t>$2000 Per Load</t>
-  </si>
-  <si>
     <t>$1450 Per Load</t>
   </si>
   <si>
-    <t>Maize</t>
-  </si>
-  <si>
     <t>Bagged Lime</t>
   </si>
   <si>
     <t>50% Upon loading and Balance 50% upon Submission of Original PODs</t>
   </si>
   <si>
-    <t>Gold</t>
-  </si>
-  <si>
-    <t>Chivhu TO Beitbridge</t>
-  </si>
-  <si>
-    <t>$666 Per Load</t>
-  </si>
-  <si>
-    <t>40% Upon loading and Balance 60% upon Submission of Original PODs</t>
+    <t>BEIRA TO HARARE TURN IN HARARE</t>
+  </si>
+  <si>
+    <t>$1260 Per Load</t>
+  </si>
+  <si>
+    <t>20ft CONTAINERS</t>
+  </si>
+  <si>
+    <t>50% Fuel Upon loading and Balance Cash on Submission of Original PODsFuel available in Beira at $1,33 per litre. Triaxles needed</t>
+  </si>
+  <si>
+    <t>Kwekwe to Richards Bay</t>
+  </si>
+  <si>
+    <t>Chrome</t>
+  </si>
+  <si>
+    <t>50% upon loading and Balance on submission of Original PODs. Tippers needed only</t>
+  </si>
+  <si>
+    <t>BEIRA TO HARARE</t>
+  </si>
+  <si>
+    <t>BAGGED FERTILIZER</t>
+  </si>
+  <si>
+    <t>50% Fuel Upon loading and Balance Cash on Submission of Original PODs. Fuel available in Beira at $1,33 per litre. 2 super link TRUCKS NEEDED</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Per Load</t>
   </si>
 </sst>
 </file>
@@ -126,10 +138,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -435,22 +450,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="60.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.36328125" customWidth="1"/>
+    <col min="2" max="2" width="18.7265625" customWidth="1"/>
+    <col min="3" max="3" width="17.26953125" customWidth="1"/>
+    <col min="4" max="4" width="71.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -467,55 +482,72 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
       </c>
       <c r="E3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>13</v>
       </c>
       <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
         <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
